--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.199307711043</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H2">
-        <v>50.199307711043</v>
+        <v>155.244248</v>
       </c>
       <c r="I2">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J2">
-        <v>0.1459195924476312</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.152424060668825</v>
+        <v>0.2083573333333334</v>
       </c>
       <c r="N2">
-        <v>0.152424060668825</v>
+        <v>0.6250720000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.479707634607725</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4797076346077249</v>
       </c>
       <c r="Q2">
-        <v>7.651582324081033</v>
+        <v>10.78209250953956</v>
       </c>
       <c r="R2">
-        <v>7.651582324081033</v>
+        <v>97.03883258585601</v>
       </c>
       <c r="S2">
-        <v>0.1459195924476312</v>
+        <v>0.07044182941449556</v>
       </c>
       <c r="T2">
-        <v>0.1459195924476312</v>
+        <v>0.07044182941449555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>64.5180696843527</v>
+        <v>51.74808266666667</v>
       </c>
       <c r="H3">
-        <v>64.5180696843527</v>
+        <v>155.244248</v>
       </c>
       <c r="I3">
-        <v>0.1875414395760202</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="J3">
-        <v>0.1875414395760202</v>
+        <v>0.1468432527076591</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.152424060668825</v>
+        <v>0.225985</v>
       </c>
       <c r="N3">
-        <v>0.152424060668825</v>
+        <v>0.6779550000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5202923653922751</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5202923653922751</v>
       </c>
       <c r="Q3">
-        <v>9.834106167803254</v>
+        <v>11.69429046142667</v>
       </c>
       <c r="R3">
-        <v>9.834106167803254</v>
+        <v>105.24861415284</v>
       </c>
       <c r="S3">
-        <v>0.1875414395760202</v>
+        <v>0.07640142329316356</v>
       </c>
       <c r="T3">
-        <v>0.1875414395760202</v>
+        <v>0.07640142329316356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.866937128029</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H4">
-        <v>101.866937128029</v>
+        <v>193.575878</v>
       </c>
       <c r="I4">
-        <v>0.2961073095902586</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J4">
-        <v>0.2961073095902586</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.152424060668825</v>
+        <v>0.2083573333333334</v>
       </c>
       <c r="N4">
-        <v>0.152424060668825</v>
+        <v>0.6250720000000001</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.479707634607725</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4797076346077249</v>
       </c>
       <c r="Q4">
-        <v>15.52697220495007</v>
+        <v>13.44431791257956</v>
       </c>
       <c r="R4">
-        <v>15.52697220495007</v>
+        <v>120.998861213216</v>
       </c>
       <c r="S4">
-        <v>0.2961073095902586</v>
+        <v>0.08783474526436046</v>
       </c>
       <c r="T4">
-        <v>0.2961073095902586</v>
+        <v>0.08783474526436047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>83.1842213585752</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H5">
-        <v>83.1842213585752</v>
+        <v>193.575878</v>
       </c>
       <c r="I5">
-        <v>0.2418003002867435</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="J5">
-        <v>0.2418003002867435</v>
+        <v>0.1831005782015253</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.152424060668825</v>
+        <v>0.225985</v>
       </c>
       <c r="N5">
-        <v>0.152424060668825</v>
+        <v>0.6779550000000001</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5202923653922751</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5202923653922751</v>
       </c>
       <c r="Q5">
-        <v>12.67927680304843</v>
+        <v>14.58174826327667</v>
       </c>
       <c r="R5">
-        <v>12.67927680304843</v>
+        <v>131.23573436949</v>
       </c>
       <c r="S5">
-        <v>0.2418003002867435</v>
+        <v>0.09526583293716483</v>
       </c>
       <c r="T5">
-        <v>0.2418003002867435</v>
+        <v>0.09526583293716484</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>102.0393243333333</v>
+      </c>
+      <c r="H6">
+        <v>306.117973</v>
+      </c>
+      <c r="I6">
+        <v>0.2895524919389952</v>
+      </c>
+      <c r="J6">
+        <v>0.2895524919389952</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2083573333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.6250720000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.479707634607725</v>
+      </c>
+      <c r="P6">
+        <v>0.4797076346077249</v>
+      </c>
+      <c r="Q6">
+        <v>21.26064151322845</v>
+      </c>
+      <c r="R6">
+        <v>191.345773619056</v>
+      </c>
+      <c r="S6">
+        <v>0.1389005410028277</v>
+      </c>
+      <c r="T6">
+        <v>0.1389005410028277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>44.2518034638554</v>
-      </c>
-      <c r="H6">
-        <v>44.2518034638554</v>
-      </c>
-      <c r="I6">
-        <v>0.1286313580993465</v>
-      </c>
-      <c r="J6">
-        <v>0.1286313580993465</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.152424060668825</v>
-      </c>
-      <c r="N6">
-        <v>0.152424060668825</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>6.745039575879616</v>
-      </c>
-      <c r="R6">
-        <v>6.745039575879616</v>
-      </c>
-      <c r="S6">
-        <v>0.1286313580993465</v>
-      </c>
-      <c r="T6">
-        <v>0.1286313580993465</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>102.0393243333333</v>
+      </c>
+      <c r="H7">
+        <v>306.117973</v>
+      </c>
+      <c r="I7">
+        <v>0.2895524919389952</v>
+      </c>
+      <c r="J7">
+        <v>0.2895524919389952</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.225985</v>
+      </c>
+      <c r="N7">
+        <v>0.6779550000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.5202923653922751</v>
+      </c>
+      <c r="P7">
+        <v>0.5202923653922751</v>
+      </c>
+      <c r="Q7">
+        <v>23.05935670946834</v>
+      </c>
+      <c r="R7">
+        <v>207.534210385215</v>
+      </c>
+      <c r="S7">
+        <v>0.1506519509361675</v>
+      </c>
+      <c r="T7">
+        <v>0.1506519509361675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>84.450424</v>
+      </c>
+      <c r="H8">
+        <v>253.351272</v>
+      </c>
+      <c r="I8">
+        <v>0.239641244924597</v>
+      </c>
+      <c r="J8">
+        <v>0.239641244924597</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2083573333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.6250720000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.479707634607725</v>
+      </c>
+      <c r="P8">
+        <v>0.4797076346077249</v>
+      </c>
+      <c r="Q8">
+        <v>17.59586514350934</v>
+      </c>
+      <c r="R8">
+        <v>158.362786291584</v>
+      </c>
+      <c r="S8">
+        <v>0.1149577347572289</v>
+      </c>
+      <c r="T8">
+        <v>0.1149577347572289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>84.450424</v>
+      </c>
+      <c r="H9">
+        <v>253.351272</v>
+      </c>
+      <c r="I9">
+        <v>0.239641244924597</v>
+      </c>
+      <c r="J9">
+        <v>0.239641244924597</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.225985</v>
+      </c>
+      <c r="N9">
+        <v>0.6779550000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.5202923653922751</v>
+      </c>
+      <c r="P9">
+        <v>0.5202923653922751</v>
+      </c>
+      <c r="Q9">
+        <v>19.08452906764</v>
+      </c>
+      <c r="R9">
+        <v>171.76076160876</v>
+      </c>
+      <c r="S9">
+        <v>0.1246835101673681</v>
+      </c>
+      <c r="T9">
+        <v>0.1246835101673681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>49.64042033333334</v>
+      </c>
+      <c r="H10">
+        <v>148.921261</v>
+      </c>
+      <c r="I10">
+        <v>0.1408624322272234</v>
+      </c>
+      <c r="J10">
+        <v>0.1408624322272234</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2083573333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.6250720000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.479707634607725</v>
+      </c>
+      <c r="P10">
+        <v>0.4797076346077249</v>
+      </c>
+      <c r="Q10">
+        <v>10.34294560619911</v>
+      </c>
+      <c r="R10">
+        <v>93.08651045579202</v>
+      </c>
+      <c r="S10">
+        <v>0.06757278416881229</v>
+      </c>
+      <c r="T10">
+        <v>0.06757278416881229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>49.64042033333334</v>
+      </c>
+      <c r="H11">
+        <v>148.921261</v>
+      </c>
+      <c r="I11">
+        <v>0.1408624322272234</v>
+      </c>
+      <c r="J11">
+        <v>0.1408624322272234</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.225985</v>
+      </c>
+      <c r="N11">
+        <v>0.6779550000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.5202923653922751</v>
+      </c>
+      <c r="P11">
+        <v>0.5202923653922751</v>
+      </c>
+      <c r="Q11">
+        <v>11.21799038902834</v>
+      </c>
+      <c r="R11">
+        <v>100.961913501255</v>
+      </c>
+      <c r="S11">
+        <v>0.07328964805841109</v>
+      </c>
+      <c r="T11">
+        <v>0.07328964805841109</v>
       </c>
     </row>
   </sheetData>
